--- a/Cash Flow Diagrams.xlsx
+++ b/Cash Flow Diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Qasim/Desktop/3-ChemE 485/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2A635C-9147-3047-931E-EB07AD1EC3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E4EB10-7103-964E-A607-610593D1204C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{289D4077-BB62-E14B-816D-A7AC56A3195B}"/>
   </bookViews>
@@ -307,37 +307,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-10.78</c:v>
+                  <c:v>-11.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2249999999999943</c:v>
+                  <c:v>4.6549999999999727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,37 +778,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-10.78</c:v>
+                  <c:v>-11.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9943582608695634</c:v>
+                  <c:v>3.6255860869565089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.835563009451795</c:v>
+                  <c:v>3.5242995538752235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1213969821319911</c:v>
+                  <c:v>2.8451779077175892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5859331253321658</c:v>
+                  <c:v>2.3424095058413794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2858931802888423</c:v>
+                  <c:v>2.0751011911664135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8821754402511679</c:v>
+                  <c:v>1.6961362984055808</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5124886958705825</c:v>
+                  <c:v>1.3474899290483275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.315207561626589</c:v>
+                  <c:v>1.1717303730855022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1436587492405179</c:v>
+                  <c:v>1.018895976596091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9944858689047934</c:v>
+                  <c:v>0.88599650138790653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,37 +1255,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-10.78</c:v>
+                  <c:v>-11.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.785641739130436</c:v>
+                  <c:v>-7.4344139130434916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.950078729678641</c:v>
+                  <c:v>-3.9101143591682681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17131825245335008</c:v>
+                  <c:v>-1.0649364514506789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7572513777855159</c:v>
+                  <c:v>1.2774730543907005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0431445580743581</c:v>
+                  <c:v>3.3525742455571139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9253199983255262</c:v>
+                  <c:v>5.0487105439626951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.437808694196109</c:v>
+                  <c:v>6.3962004730110227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7530162558226987</c:v>
+                  <c:v>7.5679308460965249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.896675005063216</c:v>
+                  <c:v>8.5868268226926165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.891160873968008</c:v>
+                  <c:v>9.4728233240805224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4752,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DAAF11-84A7-1F4D-9A79-F219BF56B861}">
   <dimension ref="A2:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="114" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="91" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4771,7 +4771,7 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>113.36</v>
+        <v>113.69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C6">
         <f>C3+C4+C5</f>
-        <v>123.905</v>
+        <v>124.23499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4806,8 +4806,8 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>0.06+118.62</f>
-        <v>118.68</v>
+        <f>0.06+118.62+0.9</f>
+        <v>119.58000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4815,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>10.78</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B12">
         <f>-C8</f>
-        <v>-10.78</v>
+        <v>-11.06</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B13">
         <f>C6-C7</f>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="B14">
         <f>C6-C7</f>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B22" si="0">$C$6-$C$7</f>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>5.2249999999999943</v>
+        <v>4.6549999999999727</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="C30">
         <f t="shared" ref="C30:C35" si="1">B30*$C$8</f>
-        <v>2.1560000000000001</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>3.4495999999999998</v>
+        <v>3.5392000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>2.06976</v>
+        <v>2.1235200000000001</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>1.2418559999999998</v>
+        <v>1.2741120000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>1.2418559999999998</v>
+        <v>1.2741120000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>0.62092799999999992</v>
+        <v>0.63705600000000007</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5047,28 +5047,28 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:B51" si="2">$C$6/(1.15^A42)</f>
-        <v>107.74347826086958</v>
+        <f t="shared" ref="B42:B50" si="2">$C$6/(1.15^A42)</f>
+        <v>108.03043478260869</v>
       </c>
       <c r="C42">
         <f t="shared" ref="C42:C51" si="3">$C$7/(1.15^A42)</f>
-        <v>103.20000000000002</v>
+        <v>103.98260869565219</v>
       </c>
       <c r="D42">
         <f>C30</f>
-        <v>2.1560000000000001</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="E42">
         <f>B42-C42-D42</f>
-        <v>2.3874782608695626</v>
+        <v>1.8358260869565046</v>
       </c>
       <c r="F42">
         <f>0.23*E42</f>
-        <v>0.54911999999999939</v>
+        <v>0.42223999999999606</v>
       </c>
       <c r="G42">
         <f>0.77*E42</f>
-        <v>1.8383582608695632</v>
+        <v>1.4135860869565087</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5077,27 +5077,27 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>93.689981096408331</v>
+        <v>93.939508506616264</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>89.739130434782624</v>
+        <v>90.41965973534974</v>
       </c>
       <c r="D43">
         <f>C31</f>
-        <v>3.4495999999999998</v>
+        <v>3.5392000000000001</v>
       </c>
       <c r="E43">
         <f>B43-C43-D43</f>
-        <v>0.50125066162570819</v>
+        <v>-1.9351228733476056E-2</v>
       </c>
       <c r="F43">
         <f t="shared" ref="F43:F51" si="4">0.23*E43</f>
-        <v>0.11528765217391289</v>
+        <v>-4.4507826086994931E-3</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43:G51" si="5">0.77*E43</f>
-        <v>0.38596300945179529</v>
+        <v>-1.4900446124776564E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5106,27 +5106,27 @@
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>81.469548779485521</v>
+        <v>81.686529136188071</v>
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>78.03402646502839</v>
+        <v>78.625791074217176</v>
       </c>
       <c r="D44">
         <f t="shared" ref="D44:D47" si="6">C32</f>
-        <v>2.06976</v>
+        <v>2.1235200000000001</v>
       </c>
       <c r="E44">
         <f t="shared" ref="E44:E50" si="7">B44-C44-D44</f>
-        <v>1.3657623144571311</v>
+        <v>0.93721806197089474</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>0.31412533232514017</v>
+        <v>0.2155601542533058</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>1.0516369821319911</v>
+        <v>0.72165790771758898</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5135,27 +5135,27 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>70.843085895204794</v>
+        <v>71.031764466250493</v>
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>67.855675186981202</v>
+        <v>68.370253108014936</v>
       </c>
       <c r="D45">
         <f t="shared" si="6"/>
-        <v>1.2418559999999998</v>
+        <v>1.2741120000000001</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>1.7455547082235925</v>
+        <v>1.3873993582355575</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>0.40147758289142627</v>
+        <v>0.31910185239417821</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>1.3440771253321662</v>
+        <v>1.0682975058413793</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5164,27 +5164,27 @@
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>61.602683387134611</v>
+        <v>61.766751709783037</v>
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>59.00493494520105</v>
+        <v>59.452394006969513</v>
       </c>
       <c r="D46">
         <f t="shared" si="6"/>
-        <v>1.2418559999999998</v>
+        <v>1.2741120000000001</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
-        <v>1.3558924419335612</v>
+        <v>1.0402457028135239</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>0.31185526164471911</v>
+        <v>0.23925651164711051</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>1.0440371802888422</v>
+        <v>0.80098919116641343</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5193,27 +5193,27 @@
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
-        <v>53.567550771421402</v>
+        <v>53.710218878072212</v>
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>51.308639082783522</v>
+        <v>51.697733919103925</v>
       </c>
       <c r="D47">
         <f t="shared" si="6"/>
-        <v>0.62092799999999992</v>
+        <v>0.63705600000000007</v>
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
-        <v>1.6379836886378805</v>
+        <v>1.3754289589682867</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>0.37673624838671255</v>
+        <v>0.31634866056270594</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>1.261247440251168</v>
+        <v>1.0590802984055807</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5222,26 +5222,26 @@
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
-        <v>46.580478931670797</v>
+        <v>46.704538154845409</v>
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>44.616207898072638</v>
+        <v>44.954551234003425</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" si="7"/>
-        <v>1.964271033598159</v>
+        <v>1.7499869208419838</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>0.45178233772757659</v>
+        <v>0.40249699179365628</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>1.5124886958705825</v>
+        <v>1.3474899290483275</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5250,26 +5250,26 @@
       </c>
       <c r="B49">
         <f t="shared" si="2"/>
-        <v>40.50476428840939</v>
+        <v>40.612641873778621</v>
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>38.796702520063171</v>
+        <v>39.090914116524722</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
-        <v>1.7080617683462194</v>
+        <v>1.521727757253899</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>0.39285420671963045</v>
+        <v>0.34999738416839676</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>1.315207561626589</v>
+        <v>1.1717303730855022</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5278,26 +5278,26 @@
       </c>
       <c r="B50">
         <f t="shared" si="2"/>
-        <v>35.221534163834257</v>
+        <v>35.315340759807498</v>
       </c>
       <c r="C50">
         <f t="shared" si="3"/>
-        <v>33.736263060924493</v>
+        <v>33.992099231760626</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
-        <v>1.4852711029097634</v>
+        <v>1.3232415280468715</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>0.34161235366924558</v>
+        <v>0.30434555145078046</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>1.1436587492405179</v>
+        <v>1.018895976596091</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5306,26 +5306,26 @@
       </c>
       <c r="B51">
         <f>$C$6/(1.15^A51)</f>
-        <v>30.627421012029789</v>
+        <v>30.708991965050004</v>
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>29.335880922543044</v>
+        <v>29.558347158052722</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
         <f>B51-C51-D51</f>
-        <v>1.2915400894867446</v>
+        <v>1.1506448069972812</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>0.29705422058195124</v>
+        <v>0.26464830560937469</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>0.9944858689047934</v>
+        <v>0.88599650138790653</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="B56">
         <f>-C8</f>
-        <v>-10.78</v>
+        <v>-11.06</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B57">
         <f t="shared" ref="B57:B62" si="8">G42+D42</f>
-        <v>3.9943582608695634</v>
+        <v>3.6255860869565089</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="8"/>
-        <v>3.835563009451795</v>
+        <v>3.5242995538752235</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="8"/>
-        <v>3.1213969821319911</v>
+        <v>2.8451779077175892</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="8"/>
-        <v>2.5859331253321658</v>
+        <v>2.3424095058413794</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="8"/>
-        <v>2.2858931802888423</v>
+        <v>2.0751011911664135</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="8"/>
-        <v>1.8821754402511679</v>
+        <v>1.6961362984055808</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B63">
         <f t="shared" ref="B63:B65" si="9">G48+D48</f>
-        <v>1.5124886958705825</v>
+        <v>1.3474899290483275</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="9"/>
-        <v>1.315207561626589</v>
+        <v>1.1717303730855022</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="9"/>
-        <v>1.1436587492405179</v>
+        <v>1.018895976596091</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B66">
         <f>G51+D51</f>
-        <v>0.9944858689047934</v>
+        <v>0.88599650138790653</v>
       </c>
       <c r="D66" s="4"/>
       <c r="G66" s="4"/>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="B73">
         <f>B56</f>
-        <v>-10.78</v>
+        <v>-11.06</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B74">
         <f>B73+B57</f>
-        <v>-6.785641739130436</v>
+        <v>-7.4344139130434916</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B75">
         <f>B74+B58</f>
-        <v>-2.950078729678641</v>
+        <v>-3.9101143591682681</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B76">
         <f>B75+B59</f>
-        <v>0.17131825245335008</v>
+        <v>-1.0649364514506789</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5507,8 +5507,8 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:B83" si="10">B76+B60</f>
-        <v>2.7572513777855159</v>
+        <f t="shared" ref="B77:B81" si="10">B76+B60</f>
+        <v>1.2774730543907005</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="10"/>
-        <v>5.0431445580743581</v>
+        <v>3.3525742455571139</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="10"/>
-        <v>6.9253199983255262</v>
+        <v>5.0487105439626951</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="10"/>
-        <v>8.437808694196109</v>
+        <v>6.3962004730110227</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="10"/>
-        <v>9.7530162558226987</v>
+        <v>7.5679308460965249</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B82">
         <f>B81+B65</f>
-        <v>10.896675005063216</v>
+        <v>8.5868268226926165</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B83">
         <f>B82+B66</f>
-        <v>11.891160873968008</v>
+        <v>9.4728233240805224</v>
       </c>
     </row>
     <row r="150" spans="3:3">

--- a/Cash Flow Diagrams.xlsx
+++ b/Cash Flow Diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Qasim/Desktop/3-ChemE 485/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E4EB10-7103-964E-A607-610593D1204C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228FDA4F-7385-D149-8029-C867101EAAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{289D4077-BB62-E14B-816D-A7AC56A3195B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{289D4077-BB62-E14B-816D-A7AC56A3195B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,34 +310,34 @@
                   <c:v>-11.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6549999999999727</c:v>
+                  <c:v>4.5149999999999721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,34 +781,34 @@
                   <c:v>-11.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6255860869565089</c:v>
+                  <c:v>3.5318469565217203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5242995538752235</c:v>
+                  <c:v>3.4427872665406252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8451779077175892</c:v>
+                  <c:v>2.7742976578614154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3424095058413794</c:v>
+                  <c:v>2.2807745059664497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0751011911664135</c:v>
+                  <c:v>2.0215055391012613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6961362984055808</c:v>
+                  <c:v>1.6495313835663126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3474899290483275</c:v>
+                  <c:v>1.3069639161446169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1717303730855022</c:v>
+                  <c:v>1.1364903618648883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.018895976596091</c:v>
+                  <c:v>0.98825248857816361</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88599650138790653</c:v>
+                  <c:v>0.85934999006796819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,34 +1258,34 @@
                   <c:v>-11.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.4344139130434916</c:v>
+                  <c:v>-7.5281530434782802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9101143591682681</c:v>
+                  <c:v>-4.085365776937655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0649364514506789</c:v>
+                  <c:v>-1.3110681190762397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2774730543907005</c:v>
+                  <c:v>0.96970638689021005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3525742455571139</c:v>
+                  <c:v>2.9912119259914713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0487105439626951</c:v>
+                  <c:v>4.6407433095577844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3962004730110227</c:v>
+                  <c:v>5.9477072257024011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5679308460965249</c:v>
+                  <c:v>7.0841975875672896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5868268226926165</c:v>
+                  <c:v>8.0724500761454525</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4728233240805224</c:v>
+                  <c:v>8.9318000662134214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4306,16 +4306,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13956</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>109136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>669890</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>111648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4379,15 +4379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>24144</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>178916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>809450</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>185266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4753,7 +4753,7 @@
   <dimension ref="A2:G272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="91" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4806,8 +4806,8 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>0.06+118.62+0.9</f>
-        <v>119.58000000000001</v>
+        <f>0.2+118.62+0.9</f>
+        <v>119.72000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B13">
         <f>C6-C7</f>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="B14">
         <f>C6-C7</f>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B22" si="0">$C$6-$C$7</f>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>4.6549999999999727</v>
+        <v>4.5149999999999721</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:C51" si="3">$C$7/(1.15^A42)</f>
-        <v>103.98260869565219</v>
+        <v>104.10434782608698</v>
       </c>
       <c r="D42">
         <f>C30</f>
@@ -5060,15 +5060,15 @@
       </c>
       <c r="E42">
         <f>B42-C42-D42</f>
-        <v>1.8358260869565046</v>
+        <v>1.7140869565217147</v>
       </c>
       <c r="F42">
         <f>0.23*E42</f>
-        <v>0.42223999999999606</v>
+        <v>0.39423999999999443</v>
       </c>
       <c r="G42">
         <f>0.77*E42</f>
-        <v>1.4135860869565087</v>
+        <v>1.3198469565217203</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>90.41965973534974</v>
+        <v>90.525519848771296</v>
       </c>
       <c r="D43">
         <f>C31</f>
@@ -5089,15 +5089,15 @@
       </c>
       <c r="E43">
         <f>B43-C43-D43</f>
-        <v>-1.9351228733476056E-2</v>
+        <v>-0.12521134215503249</v>
       </c>
       <c r="F43">
         <f t="shared" ref="F43:F51" si="4">0.23*E43</f>
-        <v>-4.4507826086994931E-3</v>
+        <v>-2.8798608695657472E-2</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43:G51" si="5">0.77*E43</f>
-        <v>-1.4900446124776564E-2</v>
+        <v>-9.6412733459375025E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>78.625791074217176</v>
+        <v>78.717843346757661</v>
       </c>
       <c r="D44">
         <f t="shared" ref="D44:D47" si="6">C32</f>
@@ -5118,15 +5118,15 @@
       </c>
       <c r="E44">
         <f t="shared" ref="E44:E50" si="7">B44-C44-D44</f>
-        <v>0.93721806197089474</v>
+        <v>0.84516578943040965</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>0.2155601542533058</v>
+        <v>0.19438813156899423</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>0.72165790771758898</v>
+        <v>0.65077765786141539</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>68.370253108014936</v>
+        <v>68.450298562397961</v>
       </c>
       <c r="D45">
         <f t="shared" si="6"/>
@@ -5147,15 +5147,15 @@
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>1.3873993582355575</v>
+        <v>1.3073539038525319</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>0.31910185239417821</v>
+        <v>0.30069139788608235</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>1.0682975058413793</v>
+        <v>1.0066625059664496</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>59.452394006969513</v>
+        <v>59.521998749911269</v>
       </c>
       <c r="D46">
         <f t="shared" si="6"/>
@@ -5176,15 +5176,15 @@
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
-        <v>1.0402457028135239</v>
+        <v>0.97064095987176779</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>0.23925651164711051</v>
+        <v>0.2232474207705066</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>0.80098919116641343</v>
+        <v>0.74739353910126127</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>51.697733919103925</v>
+        <v>51.758259782531546</v>
       </c>
       <c r="D47">
         <f t="shared" si="6"/>
@@ -5205,15 +5205,15 @@
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
-        <v>1.3754289589682867</v>
+        <v>1.3149030955406655</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>0.31634866056270594</v>
+        <v>0.30242771197435309</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>1.0590802984055807</v>
+        <v>1.0124753835663125</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5226,22 +5226,22 @@
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>44.954551234003425</v>
+        <v>45.00718241959266</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" si="7"/>
-        <v>1.7499869208419838</v>
+        <v>1.6973557352527493</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>0.40249699179365628</v>
+        <v>0.39039181910813237</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>1.3474899290483275</v>
+        <v>1.3069639161446169</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5254,22 +5254,22 @@
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>39.090914116524722</v>
+        <v>39.136680364863182</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
-        <v>1.521727757253899</v>
+        <v>1.4759615089154394</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>0.34999738416839676</v>
+        <v>0.33947114705055109</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>1.1717303730855022</v>
+        <v>1.1364903618648883</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5282,22 +5282,22 @@
       </c>
       <c r="C50">
         <f t="shared" si="3"/>
-        <v>33.992099231760626</v>
+        <v>34.031895969446246</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
-        <v>1.3232415280468715</v>
+        <v>1.2834447903612514</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>0.30434555145078046</v>
+        <v>0.29519230178308781</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>1.018895976596091</v>
+        <v>0.98825248857816361</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5310,22 +5310,22 @@
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>29.558347158052722</v>
+        <v>29.592953016909785</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
         <f>B51-C51-D51</f>
-        <v>1.1506448069972812</v>
+        <v>1.1160389481402184</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>0.26464830560937469</v>
+        <v>0.25668895807225023</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>0.88599650138790653</v>
+        <v>0.85934999006796819</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B57">
         <f t="shared" ref="B57:B62" si="8">G42+D42</f>
-        <v>3.6255860869565089</v>
+        <v>3.5318469565217203</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="8"/>
-        <v>3.5242995538752235</v>
+        <v>3.4427872665406252</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="8"/>
-        <v>2.8451779077175892</v>
+        <v>2.7742976578614154</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="8"/>
-        <v>2.3424095058413794</v>
+        <v>2.2807745059664497</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="8"/>
-        <v>2.0751011911664135</v>
+        <v>2.0215055391012613</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="8"/>
-        <v>1.6961362984055808</v>
+        <v>1.6495313835663126</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B63">
         <f t="shared" ref="B63:B65" si="9">G48+D48</f>
-        <v>1.3474899290483275</v>
+        <v>1.3069639161446169</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="9"/>
-        <v>1.1717303730855022</v>
+        <v>1.1364903618648883</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="9"/>
-        <v>1.018895976596091</v>
+        <v>0.98825248857816361</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B66">
         <f>G51+D51</f>
-        <v>0.88599650138790653</v>
+        <v>0.85934999006796819</v>
       </c>
       <c r="D66" s="4"/>
       <c r="G66" s="4"/>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B74">
         <f>B73+B57</f>
-        <v>-7.4344139130434916</v>
+        <v>-7.5281530434782802</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B75">
         <f>B74+B58</f>
-        <v>-3.9101143591682681</v>
+        <v>-4.085365776937655</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B76">
         <f>B75+B59</f>
-        <v>-1.0649364514506789</v>
+        <v>-1.3110681190762397</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B77">
         <f t="shared" ref="B77:B81" si="10">B76+B60</f>
-        <v>1.2774730543907005</v>
+        <v>0.96970638689021005</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="10"/>
-        <v>3.3525742455571139</v>
+        <v>2.9912119259914713</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="10"/>
-        <v>5.0487105439626951</v>
+        <v>4.6407433095577844</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="10"/>
-        <v>6.3962004730110227</v>
+        <v>5.9477072257024011</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="10"/>
-        <v>7.5679308460965249</v>
+        <v>7.0841975875672896</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B82">
         <f>B81+B65</f>
-        <v>8.5868268226926165</v>
+        <v>8.0724500761454525</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B83">
         <f>B82+B66</f>
-        <v>9.4728233240805224</v>
+        <v>8.9318000662134214</v>
       </c>
     </row>
     <row r="150" spans="3:3">
